--- a/biology/Botanique/Bernard-Aloys_Nkongmeneck/Bernard-Aloys_Nkongmeneck.xlsx
+++ b/biology/Botanique/Bernard-Aloys_Nkongmeneck/Bernard-Aloys_Nkongmeneck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard-Aloys Nkongmeneck, né le 4 septembre 1948 à Dschang[1] et mort le 24 mars 2017 à Bologne (Italie[2]), est un ethnobotaniste et universitaire camerounais, professeur à l'université de Yaoundé I et fondateur du musée écologique du Millénaire (MEM).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard-Aloys Nkongmeneck, né le 4 septembre 1948 à Dschang et mort le 24 mars 2017 à Bologne (Italie), est un ethnobotaniste et universitaire camerounais, professeur à l'université de Yaoundé I et fondateur du musée écologique du Millénaire (MEM).
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après une licence en sciences naturelles (1978), un doctorat de 3e cycle (1982) et un Doctorat d’État en systématique et écologie de l'université de Yaoundé I(1990), il est d'abord chercheur à l'herbier national du Cameroun pendant 7 ans, puis obtient un poste à l'université de Yaoundé en février 2003. Il est admis au grade de professeur titulaire des universités en 2012[3],[1].
-En 2006 il fonde le premier musée d'histoire naturelle d'Afrique centrale, le musée écologique du Millénaire, installé depuis 2016 à Ntouessong V, un village de l'arrondissement de Soa[4].
-Il a publié 116 articles scientifiques, est auteur en taxonomie (par exemple Cola letouzeyana Nkongm.) et a encadré une trentaine de thèses soutenues dans des universités camerounaises ou étrangères[1].
-Le 27 juin 2015 il est installé chef de la communauté Atchouazong de Yaoundé dans le groupement Foréké-Dschang[1].
-Le long de sa carrière, il participe à plusieurs missions internationales de recherche aux États-Unis, en Belgique, au Tchad et au Canada[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une licence en sciences naturelles (1978), un doctorat de 3e cycle (1982) et un Doctorat d’État en systématique et écologie de l'université de Yaoundé I(1990), il est d'abord chercheur à l'herbier national du Cameroun pendant 7 ans, puis obtient un poste à l'université de Yaoundé en février 2003. Il est admis au grade de professeur titulaire des universités en 2012,.
+En 2006 il fonde le premier musée d'histoire naturelle d'Afrique centrale, le musée écologique du Millénaire, installé depuis 2016 à Ntouessong V, un village de l'arrondissement de Soa.
+Il a publié 116 articles scientifiques, est auteur en taxonomie (par exemple Cola letouzeyana Nkongm.) et a encadré une trentaine de thèses soutenues dans des universités camerounaises ou étrangères.
+Le 27 juin 2015 il est installé chef de la communauté Atchouazong de Yaoundé dans le groupement Foréké-Dschang.
+Le long de sa carrière, il participe à plusieurs missions internationales de recherche aux États-Unis, en Belgique, au Tchad et au Canada.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Président du Réseau d'Ethnobotanique du Cameroun
-Membre titulaire de l'Académie des Sciences du Cameroun (2015)[5].</t>
+Membre titulaire de l'Académie des Sciences du Cameroun (2015).</t>
         </is>
       </c>
     </row>
